--- a/NformTester/NformTester/Keywordscripts/600.60.20.20_SNMP_V3_setting_configure.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.60.20.20_SNMP_V3_setting_configure.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7595" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7595" uniqueCount="840">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3783,6 +3783,10 @@
   </si>
   <si>
     <t>"None"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4057,21 +4061,7 @@
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -4841,7 +4831,7 @@
   <dimension ref="A1:O182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4972,8 +4962,8 @@
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>796</v>
+      <c r="D4" s="30" t="s">
+        <v>839</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>197</v>
@@ -8868,34 +8858,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N176">
-    <cfRule type="cellIs" dxfId="9" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="25" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="26" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N171:N176">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N171:N176">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N177:N181">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
